--- a/Documents/TaskGraph.xlsx
+++ b/Documents/TaskGraph.xlsx
@@ -45,10 +45,15 @@
     <t>Total</t>
   </si>
   <si>
-    <t>测试环境：晓龙835芯片，Google Pixel2
+    <t xml:space="preserve">测试环境：晓龙835芯片，Google Pixel2
+线程
+主线程：GL提交，非常重度，有8ms左右耗时
+更新线程1~4：这就是我们统计的数据中的线程
+高通解释（截止到2018.12.5）
+关于线程调度到大核还是小核只与线程的负载有关，也就是说不会将负载重的线程调度到小核，即便当前有小核处于空闲状态
 结论
-对于8核（4大，4小）使用3个线程能够获得最佳效率。
-原因在于当使用&gt;=4条线程时，势必会有不同程度的线程运行在小核心上，进而时整个任务时间变长（任务结束以最后一个任务完成为标志）。</t>
+对于4大4小的CPU而言，当更新线程&gt;=4的时候实际上重度线程就达到了5条，按照高通的解释此时并不会将其中一些线程调度到小核上先跑跑，而是5条线程争抢4个大核，再算上线程之间切换的损耗就导致了性能反而下降了
+</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -672,24 +677,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6799,37 +6801,37 @@
   <dimension ref="A1:Z402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:Z13"/>
+      <selection activeCell="U1" sqref="U1:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="U1" s="5" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="V1" s="4"/>
@@ -6839,52 +6841,52 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="4"/>
@@ -7559,6 +7561,12 @@
       <c r="S14" s="1">
         <v>12.387</v>
       </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -7609,6 +7617,12 @@
       <c r="S15" s="1">
         <v>13.577999999999999</v>
       </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -7659,8 +7673,14 @@
       <c r="S16" s="1">
         <v>10.731</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4.7450000000000001</v>
       </c>
@@ -7709,8 +7729,14 @@
       <c r="S17" s="1">
         <v>9.3040000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4.5119999999999996</v>
       </c>
@@ -7759,8 +7785,14 @@
       <c r="S18" s="1">
         <v>9.5540000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4.7869999999999999</v>
       </c>
@@ -7810,7 +7842,7 @@
         <v>11.505000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4.6980000000000004</v>
       </c>
@@ -7860,7 +7892,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4.7969999999999997</v>
       </c>
@@ -7910,7 +7942,7 @@
         <v>10.036</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4.6849999999999996</v>
       </c>
@@ -7960,7 +7992,7 @@
         <v>7.9539999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4.7709999999999999</v>
       </c>
@@ -8010,7 +8042,7 @@
         <v>10.092000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4.5289999999999999</v>
       </c>
@@ -8060,7 +8092,7 @@
         <v>11.147</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4.9349999999999996</v>
       </c>
@@ -8110,7 +8142,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.3680000000000003</v>
       </c>
@@ -8160,7 +8192,7 @@
         <v>10.590999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5.0019999999999998</v>
       </c>
@@ -8210,7 +8242,7 @@
         <v>9.9719999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>4.8170000000000002</v>
       </c>
@@ -8260,7 +8292,7 @@
         <v>19.466000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4.3010000000000002</v>
       </c>
@@ -8310,7 +8342,7 @@
         <v>9.7490000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6.7919999999999998</v>
       </c>
@@ -8360,7 +8392,7 @@
         <v>11.497</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4.5940000000000003</v>
       </c>
@@ -8410,7 +8442,7 @@
         <v>10.395</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4.452</v>
       </c>
@@ -26926,7 +26958,7 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:Z13"/>
+    <mergeCell ref="U1:Z18"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TaskGraph.xlsx
+++ b/Documents/TaskGraph.xlsx
@@ -6464,16 +6464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
